--- a/library/export_po.xlsx
+++ b/library/export_po.xlsx
@@ -517,67 +517,118 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,57 +644,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,10 +1110,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1121,16 +1121,16 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1138,16 +1138,16 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1155,59 +1155,59 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1220,10 +1220,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1241,10 +1241,10 @@
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="4">
         <v>4</v>
       </c>
@@ -1262,10 +1262,10 @@
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="4">
         <v>1</v>
       </c>
@@ -1279,8 +1279,8 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="4"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -1288,8 +1288,8 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="4"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -1297,8 +1297,8 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="4"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1306,8 +1306,8 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="4"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1315,8 +1315,8 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="4"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1324,8 +1324,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1333,8 +1333,8 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1342,8 +1342,8 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1351,8 +1351,8 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -1360,8 +1360,8 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1369,8 +1369,8 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1378,8 +1378,8 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1387,8 +1387,8 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -1477,8 +1477,8 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -1486,8 +1486,8 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -1495,8 +1495,8 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -1504,8 +1504,8 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -1513,8 +1513,8 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -1522,8 +1522,8 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -1531,162 +1531,160 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="30"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="33">
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="48">
+        <f>SUM(G17:G47)</f>
         <v>49000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="34"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="37"/>
+      <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E59" s="67" t="s">
+      <c r="E59" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="28" t="s">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:E15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C18:D18"/>
@@ -1703,19 +1701,22 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A55:B55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>
@@ -1743,36 +1744,36 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1780,57 +1781,57 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1843,10 +1844,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1860,8 +1861,8 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1923,8 +1924,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1932,8 +1933,8 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1941,8 +1942,8 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1950,10 +1951,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -1961,10 +1962,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1972,10 +1973,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1983,10 +1984,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1994,8 +1995,8 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -2084,8 +2085,8 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -2093,8 +2094,8 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2102,8 +2103,8 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -2111,8 +2112,8 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2120,8 +2121,8 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="52"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -2129,8 +2130,8 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -2138,78 +2139,78 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="50"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="50"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:7" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="37"/>
+      <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -2218,39 +2219,61 @@
       <c r="C58" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28" t="s">
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="35">
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="E60:G62"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:G52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
@@ -2264,28 +2287,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A60:D62"/>
-    <mergeCell ref="E60:G62"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:G52"/>
-    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>

--- a/library/export_po.xlsx
+++ b/library/export_po.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Supplier:</t>
   </si>
@@ -113,23 +113,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S3005</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> steel cabinet with slinding steel door 3-layer adjustable shelves with lock powder coating finish size: (880h x 880w x 400d)mm color: cream
-</t>
-  </si>
-  <si>
-    <t>S3006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Table with drawers
-</t>
-  </si>
-  <si>
     <t>page 1 of 1</t>
   </si>
   <si>
@@ -191,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,12 +221,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -514,9 +491,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -529,12 +503,78 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -550,71 +590,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,21 +618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,10 +1084,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1121,16 +1095,16 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1138,16 +1112,16 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1155,59 +1129,59 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1220,10 +1194,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1234,47 +1208,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>25</v>
-      </c>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="15">
-        <v>11000</v>
-      </c>
-      <c r="G17" s="15">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15">
-        <v>5000</v>
-      </c>
-      <c r="G18" s="15">
-        <v>5000</v>
-      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -1360,8 +1310,8 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1369,8 +1319,8 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1378,8 +1328,8 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1531,160 +1481,161 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="45"/>
+      <c r="C47" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="36"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="48">
-        <f>SUM(G17:G47)</f>
-        <v>49000</v>
-      </c>
+      <c r="A48" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="49"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="A51" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="52"/>
+      <c r="E54" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="55"/>
+      <c r="A55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="28"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
+      <c r="E56" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="E58" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
+      <c r="E58" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E59" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
+      <c r="E59" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="A60" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="A62" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="A63" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:E15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C18:D18"/>
@@ -1701,22 +1652,18 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>
@@ -1744,36 +1691,36 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1781,57 +1728,57 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1844,10 +1791,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1861,8 +1808,8 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1924,8 +1871,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1933,8 +1880,8 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1942,8 +1889,8 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1952,7 +1899,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
       <c r="C27" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="4"/>
@@ -1962,10 +1909,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="57"/>
+      <c r="C28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="32"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1973,10 +1920,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="57"/>
+      <c r="C29" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="32"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1984,10 +1931,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="57"/>
+      <c r="C30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="32"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1995,8 +1942,8 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -2085,8 +2032,8 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -2094,8 +2041,8 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2103,8 +2050,8 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -2112,8 +2059,8 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2121,8 +2068,8 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -2130,8 +2077,8 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -2139,141 +2086,119 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="64"/>
+      <c r="C47" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="58"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="67"/>
+      <c r="A48" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="67"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="1:7" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="A51" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="52"/>
+      <c r="E54" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="55"/>
+      <c r="A55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="28"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
+      <c r="E56" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="A60" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="35">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A60:D62"/>
-    <mergeCell ref="E60:G62"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:G52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
@@ -2287,6 +2212,28 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="E60:G62"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:G52"/>
+    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>

--- a/library/export_po.xlsx
+++ b/library/export_po.xlsx
@@ -24,30 +24,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Supplier:</t>
   </si>
   <si>
-    <t>New A.G. Stylist Furniture</t>
+    <t>Cover and Pages Corporation</t>
   </si>
   <si>
     <t>PO No.</t>
   </si>
   <si>
-    <t>2021-06-00127</t>
+    <t>2021-07-00141</t>
   </si>
   <si>
     <t>Address:</t>
   </si>
   <si>
-    <t>132 Aurora Blvd., San Juan City</t>
+    <t xml:space="preserve">2763 Silang Street, Sta. Ana, Manila
+ </t>
   </si>
   <si>
     <t>DATE:</t>
   </si>
   <si>
-    <t>June 29, 2021</t>
+    <t>July 23, 2021</t>
   </si>
   <si>
     <t>Tel No.:</t>
@@ -59,7 +60,7 @@
     <t>Fax No.:</t>
   </si>
   <si>
-    <t>Shopping</t>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <r>
@@ -113,10 +114,20 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>S2529</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Training Kit
+Training Manual and ECO BAG (KATYA with Design and LOGO)* Size: 210 mm x 148.5 mm  (A5)* Stock: Cover Foldcote #15* Inside: Book # 70* Color: Full* Finish: Glueing/Gathering* Process: Offset</t>
+  </si>
+  <si>
     <t>page 1 of 1</t>
   </si>
   <si>
-    <t>(Total Amount in Words)   Forty Nine Thousand  pesos only</t>
+    <t>(Total Amount in Words)   Three Hundred Ten Five Thousand Three Hundred Sixty Eight pesos only</t>
   </si>
   <si>
     <t xml:space="preserve">                   In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for every day of delay shall be imposed.</t>
@@ -134,12 +145,24 @@
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
+    <t>ARIEL O. IGLESIA</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
+  </si>
+  <si>
     <t>FUNDS PROVIDED</t>
   </si>
   <si>
     <t>AMOUNT:</t>
   </si>
   <si>
+    <t>AGNES S. SANGEL</t>
+  </si>
+  <si>
+    <t>Regional Accountant</t>
+  </si>
+  <si>
     <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
   </si>
   <si>
@@ -155,16 +178,7 @@
     <t>TOTAL AMOUNT IN WORDS</t>
   </si>
   <si>
-    <t>AGNES S. SANGEL</t>
-  </si>
-  <si>
-    <t>Regional Accountant</t>
-  </si>
-  <si>
-    <t>ARIEL O. IGLESIA</t>
-  </si>
-  <si>
-    <t>Regional Director</t>
+    <t>Delivery  Terms</t>
   </si>
 </sst>
 </file>
@@ -174,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -221,15 +235,8 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -245,7 +252,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -381,7 +388,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -392,20 +401,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -414,37 +410,19 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -491,17 +469,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -521,79 +502,85 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,8 +604,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,10 +1077,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1095,16 +1088,16 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1112,16 +1105,16 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1129,59 +1122,57 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1194,10 +1185,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1208,20 +1199,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+    <row r="17" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="4">
+        <v>1264</v>
+      </c>
+      <c r="F17" s="15">
+        <v>249.5</v>
+      </c>
+      <c r="G17" s="15">
+        <v>315368</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="4"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -1229,8 +1232,8 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="4"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -1238,8 +1241,8 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="4"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -1247,8 +1250,8 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="4"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1256,8 +1259,8 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="4"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -1265,8 +1268,8 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="4"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1274,8 +1277,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1283,8 +1286,8 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1292,8 +1295,8 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1301,8 +1304,8 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -1310,8 +1313,8 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1319,8 +1322,8 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1328,8 +1331,8 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1337,8 +1340,8 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -1427,8 +1430,8 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -1436,8 +1439,8 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -1445,8 +1448,8 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -1454,8 +1457,8 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -1463,8 +1466,8 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -1472,8 +1475,8 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -1481,118 +1484,120 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="36"/>
+      <c r="C47" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="37"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="39"/>
+      <c r="A48" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="40">
+        <v>315368</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="40"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="A51" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="43"/>
+      <c r="E54" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="44"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="28"/>
+      <c r="A55" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="29"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+      <c r="E56" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="E58" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
+      <c r="E58" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E59" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
+      <c r="E59" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="A60" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,24 +1607,24 @@
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="44">
+  <mergeCells count="46">
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A63:D63"/>
@@ -1636,6 +1641,8 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:E15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C18:D18"/>
@@ -1691,36 +1698,36 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
@@ -1728,57 +1735,57 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1791,10 +1798,10 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1808,8 +1815,8 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1871,8 +1878,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1880,8 +1887,8 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1889,8 +1896,8 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="4"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1898,10 +1905,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="30"/>
+      <c r="C27" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="31"/>
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -1909,10 +1916,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="32"/>
+      <c r="C28" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="33"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -1920,10 +1927,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="32"/>
+      <c r="C29" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="33"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1931,10 +1938,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="32"/>
+      <c r="C30" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="33"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1942,8 +1949,8 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="4"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -2032,8 +2039,8 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -2041,8 +2048,8 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2050,8 +2057,8 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -2059,8 +2066,8 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="4"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2068,8 +2075,8 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
       <c r="E45" s="4"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -2077,8 +2084,8 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
       <c r="E46" s="4"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -2086,115 +2093,115 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="58"/>
+      <c r="C47" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="61"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="61"/>
+      <c r="A48" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="64"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="64"/>
     </row>
     <row r="50" spans="1:7" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="A51" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="43"/>
+      <c r="E54" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="44"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="28"/>
+      <c r="A55" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="29"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+      <c r="E56" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="A60" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
